--- a/SplunkInternalIndexSourceSourcetypeList.xlsx
+++ b/SplunkInternalIndexSourceSourcetypeList.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="360" yWindow="60" windowWidth="22995" windowHeight="9780"/>
   </bookViews>
   <sheets>
-    <sheet name="SplunkInternalIndexSourceSource" sheetId="1" r:id="rId1"/>
+    <sheet name="Splunk Internal Logs - AWS" sheetId="1" r:id="rId1"/>
+    <sheet name="Splunk Internal Logs - OnPrem" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="127">
   <si>
     <t>index</t>
   </si>
@@ -200,6 +201,201 @@
   </si>
   <si>
     <t xml:space="preserve">index=_* | stats count by index, source, sourcetype | sort - index count | fields </t>
+  </si>
+  <si>
+    <t>/opt/splunk/var/log/splunk/Splunk_TA_f5_bigip_main.log</t>
+  </si>
+  <si>
+    <t>f5:bigip:addon:log</t>
+  </si>
+  <si>
+    <t>/opt/splunk/var/log/splunk/btool.log</t>
+  </si>
+  <si>
+    <t>splunk_btool</t>
+  </si>
+  <si>
+    <t>/opt/splunk/var/log/splunk/conf.log</t>
+  </si>
+  <si>
+    <t>splunkd_conf</t>
+  </si>
+  <si>
+    <t>/opt/splunk/var/log/splunk/configuration_check.log</t>
+  </si>
+  <si>
+    <t>configuration_check</t>
+  </si>
+  <si>
+    <t>/opt/splunk/var/log/splunk/data_migrator.log</t>
+  </si>
+  <si>
+    <t>data_migrator</t>
+  </si>
+  <si>
+    <t>/opt/splunk/var/log/splunk/dbx2.log</t>
+  </si>
+  <si>
+    <t>dbx2</t>
+  </si>
+  <si>
+    <t>/opt/splunk/var/log/splunk/dbx_query_audit.log</t>
+  </si>
+  <si>
+    <t>dbx_query_audit</t>
+  </si>
+  <si>
+    <t>/opt/splunk/var/log/splunk/health.log</t>
+  </si>
+  <si>
+    <t>dbx_health</t>
+  </si>
+  <si>
+    <t>/opt/splunk/var/log/splunk/hydra_access.log</t>
+  </si>
+  <si>
+    <t>hydra_access</t>
+  </si>
+  <si>
+    <t>/opt/splunk/var/log/splunk/hydra_gatekeeper.log</t>
+  </si>
+  <si>
+    <t>hydra_gatekeeper</t>
+  </si>
+  <si>
+    <t>/opt/splunk/var/log/splunk/hydra_gateway.log</t>
+  </si>
+  <si>
+    <t>hydra_gateway</t>
+  </si>
+  <si>
+    <t>/opt/splunk/var/log/splunk/license_usage.log</t>
+  </si>
+  <si>
+    <t>/opt/splunk/var/log/splunk/main.log</t>
+  </si>
+  <si>
+    <t>main-2</t>
+  </si>
+  <si>
+    <t>/opt/splunk/var/log/splunk/mongod.log</t>
+  </si>
+  <si>
+    <t>mongod</t>
+  </si>
+  <si>
+    <t>/opt/splunk/var/log/splunk/py_health.log</t>
+  </si>
+  <si>
+    <t>/opt/splunk/var/log/splunk/python.log</t>
+  </si>
+  <si>
+    <t>splunk_python</t>
+  </si>
+  <si>
+    <t>/opt/splunk/var/log/splunk/python_modular_input.log</t>
+  </si>
+  <si>
+    <t>python_modular_input</t>
+  </si>
+  <si>
+    <t>/opt/splunk/var/log/splunk/read_structures_service.log</t>
+  </si>
+  <si>
+    <t>read_structures_service-2</t>
+  </si>
+  <si>
+    <t>/opt/splunk/var/log/splunk/remote_searches.log</t>
+  </si>
+  <si>
+    <t>splunkd_remote_searches</t>
+  </si>
+  <si>
+    <t>/opt/splunk/var/log/splunk/rpc.log</t>
+  </si>
+  <si>
+    <t>rpc</t>
+  </si>
+  <si>
+    <t>/opt/splunk/var/log/splunk/splunk_ta_snow_main.log</t>
+  </si>
+  <si>
+    <t>ta_snow</t>
+  </si>
+  <si>
+    <t>/opt/splunk/var/log/splunk/vmware_syslog_configurator.log</t>
+  </si>
+  <si>
+    <t>vmware_syslog_configurator-2</t>
+  </si>
+  <si>
+    <t>/opt/splunkforwarder/var/log/splunk/metrics.log</t>
+  </si>
+  <si>
+    <t>/opt/splunkforwarder/var/log/splunk/metrics.log.1</t>
+  </si>
+  <si>
+    <t>/opt/splunkforwarder/var/log/splunk/splunkd-utility.log</t>
+  </si>
+  <si>
+    <t>splunkd-utility-2</t>
+  </si>
+  <si>
+    <t>splunkd-utility-3</t>
+  </si>
+  <si>
+    <t>/opt/splunkforwarder/var/log/splunk/splunkd.log</t>
+  </si>
+  <si>
+    <t>/opt/splunkforwarder/var/log/splunk/splunkd_stderr.log</t>
+  </si>
+  <si>
+    <t>splunkd_stderr</t>
+  </si>
+  <si>
+    <t>C:\Program Files\SplunkUniversalForwarder\var\log\splunk\metrics.log</t>
+  </si>
+  <si>
+    <t>C:\Program Files\SplunkUniversalForwarder\var\log\splunk\metrics.log.1</t>
+  </si>
+  <si>
+    <t>C:\Program Files\SplunkUniversalForwarder\var\log\splunk\splunkd.log</t>
+  </si>
+  <si>
+    <t>C:\Program Files\Splunk\var\log\splunk\metrics.log</t>
+  </si>
+  <si>
+    <t>C:\Program Files\Splunk\var\log\splunk\mongod.log</t>
+  </si>
+  <si>
+    <t>C:\Program Files\Splunk\var\log\splunk\scheduler.log</t>
+  </si>
+  <si>
+    <t>C:\Program Files\Splunk\var\log\splunk\splunkd.log</t>
+  </si>
+  <si>
+    <t>C:\Program Files\Splunk\var\log\splunk\splunkd_access.log</t>
+  </si>
+  <si>
+    <t>c:\SplunkUniversalForwarder\var\log\splunk\audit.log</t>
+  </si>
+  <si>
+    <t>splunk_audit</t>
+  </si>
+  <si>
+    <t>c:\SplunkUniversalForwarder\var\log\splunk\metrics.log</t>
+  </si>
+  <si>
+    <t>c:\SplunkUniversalForwarder\var\log\splunk\splunkd.log</t>
+  </si>
+  <si>
+    <t>C:\Program Files\Splunk\var\log\introspection\disk_objects.log</t>
+  </si>
+  <si>
+    <t>C:\Program Files\Splunk\var\log\introspection\kvstore.log</t>
+  </si>
+  <si>
+    <t>C:\Program Files\Splunk\var\log\introspection\resource_usage.log</t>
   </si>
 </sst>
 </file>
@@ -1092,9 +1288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1601,4 +1795,800 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2">
+        <v>67092</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>5622459</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>1842523</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>1731350</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>1057711</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>917104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>438573</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>195696</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11">
+        <v>88068</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12">
+        <v>48276</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13">
+        <v>39258</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14">
+        <v>21051</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15">
+        <v>12013</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16">
+        <v>9207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17">
+        <v>8816</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18">
+        <v>6194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19">
+        <v>5517</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <v>5456</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21">
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22">
+        <v>4382</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" t="s">
+        <v>103</v>
+      </c>
+      <c r="D46">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" t="s">
+        <v>88</v>
+      </c>
+      <c r="D47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" t="s">
+        <v>121</v>
+      </c>
+      <c r="D48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51">
+        <v>156792</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52">
+        <v>14005</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53">
+        <v>4924</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" t="s">
+        <v>125</v>
+      </c>
+      <c r="C55" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" t="s">
+        <v>124</v>
+      </c>
+      <c r="C56" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:F55">
+    <sortCondition ref="A2:A55"/>
+    <sortCondition descending="1" ref="D2:D55"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>